--- a/data/outputs/数学期刊(下)_altmetric/65Proceedings of the Steklov Institute of Mathematics.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/65Proceedings of the Steklov Institute of Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE152"/>
+  <dimension ref="A1:CF152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1292,6 +1300,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1551,6 +1562,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1802,6 +1816,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2057,6 +2074,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2314,6 +2334,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2567,6 +2590,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2824,6 +2850,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3077,6 +3106,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3328,6 +3360,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3579,6 +3614,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3828,6 +3866,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4077,6 +4118,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4330,6 +4374,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4581,6 +4628,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,6 +4890,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5097,6 +5150,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5350,6 +5406,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5607,6 +5666,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5864,6 +5926,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6117,6 +6182,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6374,6 +6442,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6627,6 +6698,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6880,6 +6954,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7133,6 +7210,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7386,6 +7466,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7641,6 +7724,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7888,6 +7974,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8137,6 +8226,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8386,6 +8478,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8641,6 +8736,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8894,6 +8992,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9147,6 +9248,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9408,6 +9512,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9669,6 +9776,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9920,6 +10030,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10171,6 +10284,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10416,6 +10532,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10677,6 +10796,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10936,6 +11058,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11191,6 +11316,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11448,6 +11576,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11709,6 +11840,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11968,6 +12102,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12219,6 +12356,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12474,6 +12614,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12735,6 +12878,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12978,6 +13124,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13229,6 +13378,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13484,6 +13636,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13742,6 +13897,9 @@
       </c>
       <c r="CE52" t="n">
         <v>0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
@@ -13992,6 +14150,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14243,6 +14404,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14490,6 +14654,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14747,6 +14914,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15004,6 +15174,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15253,6 +15426,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15502,6 +15678,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15763,6 +15942,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16018,6 +16200,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16267,6 +16452,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16518,6 +16706,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16771,6 +16962,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17024,6 +17218,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17285,6 +17482,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17534,6 +17734,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17787,6 +17990,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18040,6 +18246,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18301,6 +18510,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18552,6 +18764,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18813,6 +19028,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19054,6 +19272,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19303,6 +19524,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19560,6 +19784,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19817,6 +20044,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -20066,6 +20296,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20309,6 +20542,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20568,6 +20804,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20807,6 +21046,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21058,6 +21300,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21295,6 +21540,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21548,6 +21796,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21793,6 +22044,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -22042,6 +22296,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22293,6 +22550,9 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22540,6 +22800,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22793,6 +23056,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -23042,6 +23308,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23299,6 +23568,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23548,6 +23820,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23805,6 +24080,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -24062,6 +24340,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24319,6 +24600,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24568,6 +24852,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24821,6 +25108,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -25070,6 +25360,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -25323,6 +25616,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25574,6 +25870,9 @@
         <v>0</v>
       </c>
       <c r="CE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25813,6 +26112,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -26066,6 +26368,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -26315,6 +26620,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26568,6 +26876,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26825,6 +27136,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -27072,6 +27386,9 @@
         <v>0</v>
       </c>
       <c r="CE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27323,6 +27640,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27578,6 +27898,9 @@
         <v>0</v>
       </c>
       <c r="CE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27825,6 +28148,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -28076,6 +28402,9 @@
         <v>0</v>
       </c>
       <c r="CE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28307,6 +28636,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28562,6 +28894,9 @@
         <v>0</v>
       </c>
       <c r="CE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28801,6 +29136,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -29050,6 +29388,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -29299,6 +29640,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29550,6 +29894,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29803,6 +30150,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -30058,6 +30408,9 @@
         <v>0</v>
       </c>
       <c r="CE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30303,6 +30656,9 @@
         <v>0</v>
       </c>
       <c r="CE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30538,6 +30894,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30793,6 +31152,9 @@
         <v>0</v>
       </c>
       <c r="CE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31048,6 +31410,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -31299,6 +31664,9 @@
         <v>0</v>
       </c>
       <c r="CE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31534,6 +31902,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31795,6 +32166,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -32056,6 +32430,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -32307,6 +32684,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32554,6 +32934,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32795,6 +33178,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -33040,6 +33426,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -33291,6 +33680,9 @@
         <v>0</v>
       </c>
       <c r="CE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33530,6 +33922,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33783,6 +34178,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -34036,6 +34434,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -34289,6 +34690,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34542,6 +34946,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34795,6 +35202,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -35044,6 +35454,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -35297,6 +35710,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35544,6 +35960,9 @@
         <v>0</v>
       </c>
       <c r="CE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35787,6 +36206,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -36034,6 +36456,9 @@
         <v>0</v>
       </c>
       <c r="CE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36273,6 +36698,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36522,6 +36950,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36769,6 +37200,9 @@
         <v>0</v>
       </c>
       <c r="CE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37026,6 +37460,9 @@
         <v>0</v>
       </c>
       <c r="CE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37281,6 +37718,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -37522,6 +37962,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37769,6 +38212,9 @@
         <v>0</v>
       </c>
       <c r="CE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38006,6 +38452,9 @@
         <v>0</v>
       </c>
       <c r="CE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38253,6 +38702,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -38498,6 +38950,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38751,6 +39206,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
